--- a/src/test/resources/testdata/AllData.xlsx
+++ b/src/test/resources/testdata/AllData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16950" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="search" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:J17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -39,37 +41,40 @@
     <t>state</t>
   </si>
   <si>
+    <t>priyachougule10@gmail.com</t>
+  </si>
+  <si>
+    <t>priyanka</t>
+  </si>
+  <si>
+    <t>chougule</t>
+  </si>
+  <si>
+    <t>priya@123</t>
+  </si>
+  <si>
+    <t>kolhapur</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>searchproduct</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
     <t>zip</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>priyachougule10@gmail.com</t>
-  </si>
-  <si>
-    <t>priyanka</t>
-  </si>
-  <si>
-    <t>chougule</t>
-  </si>
-  <si>
-    <t>priya@123</t>
-  </si>
-  <si>
-    <t>kolhapur</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>searchproduct</t>
-  </si>
-  <si>
-    <t>t-shirt</t>
   </si>
 </sst>
 </file>
@@ -417,7 +422,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,33 +459,33 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>411002</v>
@@ -514,7 +519,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -522,10 +527,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -552,15 +557,89 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>